--- a/src/main/resources/190-wanxin-p2p/wanxinp2p-transaction-service_structure.xlsx
+++ b/src/main/resources/190-wanxin-p2p/wanxinp2p-transaction-service_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="298">
   <si>
     <t>类名</t>
   </si>
@@ -325,7 +325,7 @@
     <t>com.wanxin.transaction.message.TransactionListenerImpl</t>
   </si>
   <si>
-    <t>executeLocalTransaction(org.springframework.messaging.Message)</t>
+    <t>executeLocalTransaction(org.springframework.messaging.Message,java.lang.Object)</t>
   </si>
   <si>
     <t>org.apache.rocketmq.spring.core.RocketMQLocalTransactionState</t>
@@ -337,7 +337,7 @@
     <t>com.wanxin.transaction.message.TransactionProducer</t>
   </si>
   <si>
-    <t>updateProjectStatusAndStartRepayment(com.wanxin.api.transaction.model.ProjectWithTendersDTO)</t>
+    <t>updateProjectStatusAndStartRepayment(com.wanxin.transaction.entity.Project,com.wanxin.api.transaction.model.ProjectWithTendersDTO)</t>
   </si>
   <si>
     <t>com.wanxin.transaction.agent.DepositoryAgentApiAgentConfiguration</t>
@@ -364,7 +364,7 @@
     <t>com.wanxin.transaction.agent.ContentSearchApiAgent</t>
   </si>
   <si>
-    <t>queryProjectIndex(com.wanxin.api.transaction.model.ProjectQueryDTO)</t>
+    <t>queryProjectIndex(com.wanxin.api.transaction.model.ProjectQueryDTO,java.lang.Integer,java.lang.Integer,java.lang.String,java.lang.String)</t>
   </si>
   <si>
     <t>com.wanxin.transaction.agent.ConsumerApiAgentConfiguration</t>
@@ -403,7 +403,7 @@
     <t>com.wanxin.transaction.common.intercept.GlobalExceptionHandler</t>
   </si>
   <si>
-    <t>exceptionGet(javax.servlet.http.HttpServletRequest)</t>
+    <t>exceptionGet(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Exception)</t>
   </si>
   <si>
     <t>com.wanxin.transaction.common.utils.SecurityUtil</t>
@@ -538,13 +538,13 @@
     <t>queryProjectsIds(java.lang.String)</t>
   </si>
   <si>
-    <t>queryProjects(com.wanxin.api.transaction.model.ProjectQueryDTO)</t>
+    <t>queryProjects(com.wanxin.api.transaction.model.ProjectQueryDTO,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.String)</t>
   </si>
   <si>
     <t>com.wanxin.common.domain.PageVO</t>
   </si>
   <si>
-    <t>queryProjectsByQueryDTO(com.wanxin.api.transaction.model.ProjectQueryDTO)</t>
+    <t>queryProjectsByQueryDTO(com.wanxin.api.transaction.model.ProjectQueryDTO,java.lang.Integer,java.lang.Integer)</t>
   </si>
   <si>
     <t>com.wanxin.transaction.service.ProjectServiceImpl</t>
@@ -604,7 +604,7 @@
     <t>com.wanxin.transaction.interceptor.TokenInterceptor</t>
   </si>
   <si>
-    <t>preHandle(javax.servlet.http.HttpServletRequest)</t>
+    <t>preHandle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Object)</t>
   </si>
   <si>
     <t>com.wanxin.transaction.interceptor.OpenFeignInterceptor</t>
@@ -868,6 +868,12 @@
     <t>qualifications()</t>
   </si>
   <si>
+    <t>queryProjects(com.wanxin.api.transaction.model.ProjectQueryDTO,java.lang.Integer,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>queryProjects(com.wanxin.api.transaction.model.ProjectQueryDTO,java.lang.Integer,java.lang.Integer,java.lang.String,java.lang.String)</t>
+  </si>
+  <si>
     <t>源类名</t>
   </si>
   <si>
@@ -889,31 +895,13 @@
     <t>2</t>
   </si>
   <si>
-    <t>queryProjectsByQueryDTO(com.wanxin.api.transaction.model.ProjectQueryDTO,java.lang.Integer,java.lang.Integer)</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>updateProjectStatusAndStartRepayment(com.wanxin.transaction.entity.Project,com.wanxin.api.transaction.model.ProjectWithTendersDTO)</t>
-  </si>
-  <si>
-    <t>queryProjects(com.wanxin.api.transaction.model.ProjectQueryDTO,java.lang.String,java.lang.Integer,java.lang.Integer,java.lang.String)</t>
-  </si>
-  <si>
-    <t>queryProjectIndex(com.wanxin.api.transaction.model.ProjectQueryDTO,java.lang.Integer,java.lang.Integer,java.lang.String,java.lang.String)</t>
-  </si>
-  <si>
     <t>源接口名</t>
   </si>
   <si>
     <t>源操作签名</t>
-  </si>
-  <si>
-    <t>queryProjects(com.wanxin.api.transaction.model.ProjectQueryDTO,java.lang.Integer,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>queryProjects(com.wanxin.api.transaction.model.ProjectQueryDTO,java.lang.Integer,java.lang.Integer,java.lang.String,java.lang.String)</t>
   </si>
   <si>
     <t>目标接口</t>
@@ -9883,7 +9871,7 @@
         <v>280</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -9925,7 +9913,7 @@
         <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>172</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -9963,19 +9951,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
@@ -9992,7 +9980,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
@@ -10009,7 +9997,7 @@
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
@@ -10026,7 +10014,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5">
@@ -10043,7 +10031,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
@@ -10060,7 +10048,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
@@ -10077,7 +10065,7 @@
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">
@@ -10094,7 +10082,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
@@ -10111,7 +10099,7 @@
         <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
@@ -10128,7 +10116,7 @@
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -10145,7 +10133,7 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
@@ -10162,7 +10150,7 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
@@ -10179,7 +10167,7 @@
         <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14">
@@ -10196,7 +10184,7 @@
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15">
@@ -10213,7 +10201,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16">
@@ -10230,7 +10218,7 @@
         <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17">
@@ -10247,7 +10235,7 @@
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
@@ -10264,7 +10252,7 @@
         <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19">
@@ -10281,7 +10269,7 @@
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20">
@@ -10298,7 +10286,7 @@
         <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21">
@@ -10315,7 +10303,7 @@
         <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22">
@@ -10332,7 +10320,7 @@
         <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23">
@@ -10349,7 +10337,7 @@
         <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24">
@@ -10366,7 +10354,7 @@
         <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25">
@@ -10383,7 +10371,7 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26">
@@ -10400,7 +10388,7 @@
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27">
@@ -10417,7 +10405,7 @@
         <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
@@ -10434,7 +10422,7 @@
         <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29">
@@ -10451,7 +10439,7 @@
         <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
@@ -10468,7 +10456,7 @@
         <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
@@ -10485,7 +10473,7 @@
         <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
@@ -10502,7 +10490,7 @@
         <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33">
@@ -10519,7 +10507,7 @@
         <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34">
@@ -10536,7 +10524,7 @@
         <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35">
@@ -10553,7 +10541,7 @@
         <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36">
@@ -10570,7 +10558,7 @@
         <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37">
@@ -10587,7 +10575,7 @@
         <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
@@ -10604,7 +10592,7 @@
         <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39">
@@ -10621,7 +10609,7 @@
         <v>49</v>
       </c>
       <c r="E39" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40">
@@ -10638,7 +10626,7 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41">
@@ -10655,7 +10643,7 @@
         <v>56</v>
       </c>
       <c r="E41" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42">
@@ -10672,7 +10660,7 @@
         <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
@@ -10689,7 +10677,7 @@
         <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
@@ -10706,7 +10694,7 @@
         <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
@@ -10723,7 +10711,7 @@
         <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46">
@@ -10740,7 +10728,7 @@
         <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47">
@@ -10757,7 +10745,7 @@
         <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48">
@@ -10774,7 +10762,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49">
@@ -10791,7 +10779,7 @@
         <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50">
@@ -10808,7 +10796,7 @@
         <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51">
@@ -10825,7 +10813,7 @@
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52">
@@ -10842,7 +10830,7 @@
         <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53">
@@ -10859,7 +10847,7 @@
         <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54">
@@ -10876,7 +10864,7 @@
         <v>86</v>
       </c>
       <c r="E54" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55">
@@ -10893,7 +10881,7 @@
         <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56">
@@ -10910,7 +10898,7 @@
         <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57">
@@ -10927,7 +10915,7 @@
         <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58">
@@ -10944,7 +10932,7 @@
         <v>82</v>
       </c>
       <c r="E58" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59">
@@ -10961,7 +10949,7 @@
         <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60">
@@ -10978,7 +10966,7 @@
         <v>49</v>
       </c>
       <c r="E60" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61">
@@ -10995,7 +10983,7 @@
         <v>95</v>
       </c>
       <c r="E61" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62">
@@ -11012,7 +11000,7 @@
         <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63">
@@ -11029,7 +11017,7 @@
         <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64">
@@ -11046,7 +11034,7 @@
         <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65">
@@ -11063,7 +11051,7 @@
         <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66">
@@ -11080,7 +11068,7 @@
         <v>87</v>
       </c>
       <c r="E66" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67">
@@ -11097,7 +11085,7 @@
         <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68">
@@ -11114,7 +11102,7 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69">
@@ -11131,7 +11119,7 @@
         <v>55</v>
       </c>
       <c r="E69" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70">
@@ -11148,7 +11136,7 @@
         <v>47</v>
       </c>
       <c r="E70" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71">
@@ -11165,7 +11153,7 @@
         <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72">
@@ -11182,7 +11170,7 @@
         <v>74</v>
       </c>
       <c r="E72" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73">
@@ -11199,7 +11187,7 @@
         <v>86</v>
       </c>
       <c r="E73" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74">
@@ -11216,7 +11204,7 @@
         <v>84</v>
       </c>
       <c r="E74" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="75">
@@ -11233,7 +11221,7 @@
         <v>88</v>
       </c>
       <c r="E75" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76">
@@ -11250,7 +11238,7 @@
         <v>94</v>
       </c>
       <c r="E76" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77">
@@ -11267,7 +11255,7 @@
         <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78">
@@ -11284,7 +11272,7 @@
         <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79">
@@ -11301,7 +11289,7 @@
         <v>49</v>
       </c>
       <c r="E79" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80">
@@ -11318,7 +11306,7 @@
         <v>95</v>
       </c>
       <c r="E80" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81">
@@ -11335,7 +11323,7 @@
         <v>56</v>
       </c>
       <c r="E81" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82">
@@ -11352,7 +11340,7 @@
         <v>59</v>
       </c>
       <c r="E82" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83">
@@ -11369,7 +11357,7 @@
         <v>85</v>
       </c>
       <c r="E83" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84">
@@ -11386,7 +11374,7 @@
         <v>60</v>
       </c>
       <c r="E84" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="85">
@@ -11403,7 +11391,7 @@
         <v>87</v>
       </c>
       <c r="E85" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86">
@@ -11420,7 +11408,7 @@
         <v>51</v>
       </c>
       <c r="E86" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87">
@@ -11437,7 +11425,7 @@
         <v>67</v>
       </c>
       <c r="E87" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88">
@@ -11454,7 +11442,7 @@
         <v>55</v>
       </c>
       <c r="E88" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89">
@@ -11471,7 +11459,7 @@
         <v>47</v>
       </c>
       <c r="E89" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90">
@@ -11488,7 +11476,7 @@
         <v>78</v>
       </c>
       <c r="E90" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="91">
@@ -11505,7 +11493,7 @@
         <v>74</v>
       </c>
       <c r="E91" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92">
@@ -11522,7 +11510,7 @@
         <v>86</v>
       </c>
       <c r="E92" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93">
@@ -11539,7 +11527,7 @@
         <v>84</v>
       </c>
       <c r="E93" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94">
@@ -11556,7 +11544,7 @@
         <v>88</v>
       </c>
       <c r="E94" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95">
@@ -11573,7 +11561,7 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96">
@@ -11590,7 +11578,7 @@
         <v>82</v>
       </c>
       <c r="E96" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97">
@@ -11607,7 +11595,7 @@
         <v>75</v>
       </c>
       <c r="E97" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98">
@@ -11624,7 +11612,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99">
@@ -11641,7 +11629,7 @@
         <v>95</v>
       </c>
       <c r="E99" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100">
@@ -11658,7 +11646,7 @@
         <v>56</v>
       </c>
       <c r="E100" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="101">
@@ -11675,7 +11663,7 @@
         <v>59</v>
       </c>
       <c r="E101" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="102">
@@ -11692,7 +11680,7 @@
         <v>85</v>
       </c>
       <c r="E102" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103">
@@ -11709,7 +11697,7 @@
         <v>60</v>
       </c>
       <c r="E103" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104">
@@ -11726,7 +11714,7 @@
         <v>87</v>
       </c>
       <c r="E104" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105">
@@ -11743,7 +11731,7 @@
         <v>166</v>
       </c>
       <c r="E105" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106">
@@ -11760,7 +11748,7 @@
         <v>51</v>
       </c>
       <c r="E106" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107">
@@ -11777,7 +11765,7 @@
         <v>95</v>
       </c>
       <c r="E107" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108">
@@ -11794,7 +11782,7 @@
         <v>138</v>
       </c>
       <c r="E108" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109">
@@ -11811,7 +11799,7 @@
         <v>145</v>
       </c>
       <c r="E109" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110">
@@ -11828,7 +11816,7 @@
         <v>159</v>
       </c>
       <c r="E110" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111">
@@ -11845,7 +11833,7 @@
         <v>160</v>
       </c>
       <c r="E111" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112">
@@ -11862,7 +11850,7 @@
         <v>94</v>
       </c>
       <c r="E112" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113">
@@ -11879,7 +11867,7 @@
         <v>82</v>
       </c>
       <c r="E113" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114">
@@ -11896,7 +11884,7 @@
         <v>51</v>
       </c>
       <c r="E114" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115">
@@ -11913,7 +11901,7 @@
         <v>97</v>
       </c>
       <c r="E115" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116">
@@ -11930,7 +11918,7 @@
         <v>49</v>
       </c>
       <c r="E116" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="117">
@@ -11947,7 +11935,7 @@
         <v>49</v>
       </c>
       <c r="E117" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118">
@@ -11964,7 +11952,7 @@
         <v>60</v>
       </c>
       <c r="E118" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="119">
@@ -11981,7 +11969,7 @@
         <v>112</v>
       </c>
       <c r="E119" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="120">
@@ -11998,7 +11986,7 @@
         <v>181</v>
       </c>
       <c r="E120" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121">
@@ -12015,7 +12003,7 @@
         <v>94</v>
       </c>
       <c r="E121" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122">
@@ -12032,7 +12020,7 @@
         <v>76</v>
       </c>
       <c r="E122" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123">
@@ -12049,7 +12037,7 @@
         <v>88</v>
       </c>
       <c r="E123" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="124">
@@ -12066,7 +12054,7 @@
         <v>91</v>
       </c>
       <c r="E124" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="125">
@@ -12083,7 +12071,7 @@
         <v>82</v>
       </c>
       <c r="E125" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126">
@@ -12100,7 +12088,7 @@
         <v>92</v>
       </c>
       <c r="E126" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="127">
@@ -12117,7 +12105,7 @@
         <v>80</v>
       </c>
       <c r="E127" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128">
@@ -12134,7 +12122,7 @@
         <v>89</v>
       </c>
       <c r="E128" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129">
@@ -12151,7 +12139,7 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130">
@@ -12168,7 +12156,7 @@
         <v>78</v>
       </c>
       <c r="E130" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131">
@@ -12176,7 +12164,7 @@
         <v>175</v>
       </c>
       <c r="B131" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="C131" t="s">
         <v>175</v>
@@ -12185,7 +12173,7 @@
         <v>192</v>
       </c>
       <c r="E131" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="132">
@@ -12202,7 +12190,7 @@
         <v>145</v>
       </c>
       <c r="E132" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="133">
@@ -12219,7 +12207,7 @@
         <v>48</v>
       </c>
       <c r="E133" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="134">
@@ -12236,7 +12224,7 @@
         <v>182</v>
       </c>
       <c r="E134" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="135">
@@ -12253,7 +12241,7 @@
         <v>177</v>
       </c>
       <c r="E135" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136">
@@ -12270,7 +12258,7 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137">
@@ -12287,7 +12275,7 @@
         <v>61</v>
       </c>
       <c r="E137" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138">
@@ -12304,7 +12292,7 @@
         <v>90</v>
       </c>
       <c r="E138" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139">
@@ -12321,7 +12309,7 @@
         <v>187</v>
       </c>
       <c r="E139" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140">
@@ -12338,7 +12326,7 @@
         <v>120</v>
       </c>
       <c r="E140" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141">
@@ -12355,7 +12343,7 @@
         <v>179</v>
       </c>
       <c r="E141" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="142">
@@ -12372,7 +12360,7 @@
         <v>51</v>
       </c>
       <c r="E142" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143">
@@ -12389,7 +12377,7 @@
         <v>121</v>
       </c>
       <c r="E143" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="144">
@@ -12406,7 +12394,7 @@
         <v>182</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145">
@@ -12423,7 +12411,7 @@
         <v>190</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146">
@@ -12440,7 +12428,7 @@
         <v>160</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147">
@@ -12457,7 +12445,7 @@
         <v>159</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148">
@@ -12471,10 +12459,10 @@
         <v>104</v>
       </c>
       <c r="D148" t="s">
-        <v>291</v>
+        <v>105</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149">
@@ -12491,7 +12479,7 @@
         <v>112</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150">
@@ -12508,7 +12496,7 @@
         <v>51</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151">
@@ -12525,7 +12513,7 @@
         <v>47</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152">
@@ -12542,7 +12530,7 @@
         <v>90</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="153">
@@ -12559,7 +12547,7 @@
         <v>182</v>
       </c>
       <c r="E153" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="154">
@@ -12576,7 +12564,7 @@
         <v>60</v>
       </c>
       <c r="E154" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155">
@@ -12593,7 +12581,7 @@
         <v>51</v>
       </c>
       <c r="E155" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="156">
@@ -12610,7 +12598,7 @@
         <v>61</v>
       </c>
       <c r="E156" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157">
@@ -12627,7 +12615,7 @@
         <v>68</v>
       </c>
       <c r="E157" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158">
@@ -12644,7 +12632,7 @@
         <v>83</v>
       </c>
       <c r="E158" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159">
@@ -12661,7 +12649,7 @@
         <v>122</v>
       </c>
       <c r="E159" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160">
@@ -12678,7 +12666,7 @@
         <v>90</v>
       </c>
       <c r="E160" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="161">
@@ -12695,7 +12683,7 @@
         <v>43</v>
       </c>
       <c r="E161" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162">
@@ -12712,7 +12700,7 @@
         <v>158</v>
       </c>
       <c r="E162" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163">
@@ -12729,7 +12717,7 @@
         <v>112</v>
       </c>
       <c r="E163" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164">
@@ -12746,7 +12734,7 @@
         <v>110</v>
       </c>
       <c r="E164" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="165">
@@ -12763,7 +12751,7 @@
         <v>95</v>
       </c>
       <c r="E165" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="166">
@@ -12780,7 +12768,7 @@
         <v>177</v>
       </c>
       <c r="E166" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="167">
@@ -12797,7 +12785,7 @@
         <v>65</v>
       </c>
       <c r="E167" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="168">
@@ -12814,7 +12802,7 @@
         <v>45</v>
       </c>
       <c r="E168" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="169">
@@ -12831,7 +12819,7 @@
         <v>42</v>
       </c>
       <c r="E169" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="170">
@@ -12848,7 +12836,7 @@
         <v>69</v>
       </c>
       <c r="E170" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="171">
@@ -12865,7 +12853,7 @@
         <v>54</v>
       </c>
       <c r="E171" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="172">
@@ -12882,7 +12870,7 @@
         <v>47</v>
       </c>
       <c r="E172" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="173">
@@ -12899,7 +12887,7 @@
         <v>41</v>
       </c>
       <c r="E173" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="174">
@@ -12916,7 +12904,7 @@
         <v>145</v>
       </c>
       <c r="E174" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="175">
@@ -12933,7 +12921,7 @@
         <v>48</v>
       </c>
       <c r="E175" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="176">
@@ -12950,7 +12938,7 @@
         <v>46</v>
       </c>
       <c r="E176" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="177">
@@ -12967,7 +12955,7 @@
         <v>68</v>
       </c>
       <c r="E177" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178">
@@ -12984,7 +12972,7 @@
         <v>43</v>
       </c>
       <c r="E178" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="179">
@@ -13001,7 +12989,7 @@
         <v>78</v>
       </c>
       <c r="E179" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="180">
@@ -13018,7 +13006,7 @@
         <v>70</v>
       </c>
       <c r="E180" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="181">
@@ -13035,7 +13023,7 @@
         <v>84</v>
       </c>
       <c r="E181" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="182">
@@ -13052,7 +13040,7 @@
         <v>72</v>
       </c>
       <c r="E182" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="183">
@@ -13069,7 +13057,7 @@
         <v>88</v>
       </c>
       <c r="E183" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184">
@@ -13086,7 +13074,7 @@
         <v>64</v>
       </c>
       <c r="E184" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="185">
@@ -13103,7 +13091,7 @@
         <v>60</v>
       </c>
       <c r="E185" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="186">
@@ -13120,7 +13108,7 @@
         <v>51</v>
       </c>
       <c r="E186" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="187">
@@ -13137,7 +13125,7 @@
         <v>123</v>
       </c>
       <c r="E187" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="188">
@@ -13154,7 +13142,7 @@
         <v>90</v>
       </c>
       <c r="E188" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="189">
@@ -13171,7 +13159,7 @@
         <v>178</v>
       </c>
       <c r="E189" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="190">
@@ -13188,7 +13176,7 @@
         <v>77</v>
       </c>
       <c r="E190" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="191">
@@ -13205,7 +13193,7 @@
         <v>182</v>
       </c>
       <c r="E191" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="192">
@@ -13222,7 +13210,7 @@
         <v>88</v>
       </c>
       <c r="E192" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="193">
@@ -13239,7 +13227,7 @@
         <v>132</v>
       </c>
       <c r="E193" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="194">
@@ -13247,16 +13235,16 @@
         <v>175</v>
       </c>
       <c r="B194" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="C194" t="s">
         <v>113</v>
       </c>
       <c r="D194" t="s">
-        <v>293</v>
+        <v>114</v>
       </c>
       <c r="E194" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -13274,19 +13262,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
@@ -13303,7 +13291,7 @@
         <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
@@ -13320,7 +13308,7 @@
         <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
@@ -13337,7 +13325,7 @@
         <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5">
@@ -13354,7 +13342,7 @@
         <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6">
@@ -13362,16 +13350,16 @@
         <v>280</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
         <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
@@ -13388,7 +13376,7 @@
         <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8">
@@ -13405,7 +13393,7 @@
         <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9">
@@ -13413,16 +13401,16 @@
         <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
         <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10">
@@ -13439,7 +13427,7 @@
         <v>171</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -13457,19 +13445,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -13487,19 +13475,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" t="s">
         <v>295</v>
       </c>
-      <c r="C1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1" t="s">
-        <v>299</v>
-      </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -13517,19 +13505,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
@@ -13546,7 +13534,7 @@
         <v>262</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3">
@@ -13563,7 +13551,7 @@
         <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
@@ -13580,7 +13568,7 @@
         <v>254</v>
       </c>
       <c r="E4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5">
@@ -13597,7 +13585,7 @@
         <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6">
@@ -13614,7 +13602,7 @@
         <v>253</v>
       </c>
       <c r="E6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
@@ -13631,7 +13619,7 @@
         <v>255</v>
       </c>
       <c r="E7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8">
@@ -13648,7 +13636,7 @@
         <v>252</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9">
@@ -13665,7 +13653,7 @@
         <v>261</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10">
@@ -13682,7 +13670,7 @@
         <v>254</v>
       </c>
       <c r="E10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11">
@@ -13699,7 +13687,7 @@
         <v>251</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -13717,19 +13705,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
